--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>en_US</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>zh_CN</t>
         </is>
@@ -444,12 +449,15 @@
           <t>hdddb</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
         </is>
@@ -461,12 +469,15 @@
           <t>sortnetif</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
@@ -478,12 +489,15 @@
           <t>disks</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Config disks related setting.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>配置与磁盘相关的设置。</t>
         </is>
@@ -495,12 +509,15 @@
           <t>reboottoloader</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
         </is>
@@ -512,12 +529,15 @@
           <t>wol</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Android USB Network Adapter.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Android USB 网络适配器.</t>
         </is>
@@ -529,12 +549,15 @@
           <t>nvmevolume</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
         </is>
@@ -546,12 +569,15 @@
           <t>nvmesystem</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Author: jim3ma. Install the system on only m2 disk (current only support SA6400).</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 SA6400）。</t>
         </is>
@@ -563,12 +589,15 @@
           <t>nvmecache</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
         </is>
@@ -580,12 +609,15 @@
           <t>lsiutil</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>用于处理某些 LSI RAID 控制器的工具。</t>
         </is>
@@ -597,12 +629,15 @@
           <t>photosfacepatch</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
         </is>
@@ -614,12 +649,15 @@
           <t>notify</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Add rr notify.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>添加 rr notify。</t>
         </is>
@@ -631,12 +669,15 @@
           <t>codecpatch</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
         </is>
@@ -648,12 +689,15 @@
           <t>expands</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
         </is>
@@ -665,12 +709,15 @@
           <t>bootwait</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
         </is>
@@ -682,12 +729,15 @@
           <t>dbgutils</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Debug utilities, automatically enable ttyd and dufs in junior mode, and automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Debug 程序集合，在 junior 模式下自动开启 ttyd 和 dufs，并会自动抓取所有阶段的启动日志放于 &lt;loader disk&gt;/p1/logs/ 下。</t>
         </is>
@@ -699,12 +749,15 @@
           <t>powersched</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
         </is>
@@ -716,12 +769,15 @@
           <t>storagepanel</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
         </is>
@@ -733,12 +789,15 @@
           <t>misc</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>杂项功能。(一些小修改的集合。)</t>
         </is>
@@ -750,12 +809,15 @@
           <t>synoconfbkp</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
@@ -767,12 +829,15 @@
           <t>acpid</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>ACPI Daemon that handles power button events, fixing power button not shutting down in some environments.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>处理电源按钮事件的ACPI守护程序, 解决部分环境下电源按钮无法正常关机的问题.</t>
         </is>
@@ -784,12 +849,15 @@
           <t>revert</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Revert addons modifications.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>撤销插件修改。</t>
         </is>
@@ -801,12 +869,15 @@
           <t>eudev</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>eudev + kmod 自动加载模块。</t>
         </is>
@@ -818,12 +889,15 @@
           <t>localrss</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
         </is>
@@ -835,12 +909,15 @@
           <t>wireless</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
         </is>
@@ -852,12 +929,15 @@
           <t>console</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
         </is>
@@ -869,12 +949,15 @@
           <t>updatenotify</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>RR update notification.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>RR更新通知。</t>
         </is>
@@ -886,12 +969,15 @@
           <t>mountloader</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
         </is>
@@ -903,12 +989,15 @@
           <t>cpuinfo</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Only make the control panel display the correct CPU information. (By default, hardware information is automatically obtained, and parameters can be customized through parameters, parameters: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>仅使控制面板显示正确的 CPU 信息。(默认自动获取硬件信息，可通过的参数进行自定义， 参数: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
         </is>
@@ -920,12 +1009,15 @@
           <t>setrootpw</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
@@ -937,12 +1029,15 @@
           <t>i915le10th</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
         </is>
@@ -954,12 +1049,15 @@
           <t>addincards</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Remove model restrictions from official Addin cards(M2D20, E10G30-T2, ...).</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>移除官方 Addin 卡(M2D20, E10G30-T2, ...)对 DSM 型号限制。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hdddb</t>
+          <t>acpid</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -454,19 +454,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
+          <t>ACPI Daemon that handles power button events, fixing power button not shutting down in some environments.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
+          <t>处理电源按钮事件的ACPI守护程序, 解决部分环境下电源按钮无法正常关机的问题.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>addincards</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -474,19 +474,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Remove model restrictions from official Addin cards(M2D20, E10G30-T2, ...).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>移除官方 Addin 卡(M2D20, E10G30-T2, ...)对 DSM 型号限制。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disks</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -494,19 +494,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Config disks related setting.</t>
+          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置。</t>
+          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>codecpatch</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -514,39 +514,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
+          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wol</t>
+          <t>console</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>cpuinfo</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
+          <t>Only make the control panel display the correct CPU information. (By default, hardware information is automatically obtained, and parameters can be customized through parameters, parameters: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
+          <t>仅使控制面板显示正确的 CPU 信息。(默认自动获取硬件信息，可通过的参数进行自定义， 参数: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>dbgutils</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -574,59 +574,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install the system on only m2 disk (current only support SA6400).</t>
+          <t>Debug utilities, automatically enable ttyd and dufs in junior mode, and automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 SA6400）。</t>
+          <t>Debug 程序集合，在 junior 模式下自动开启 ttyd 和 dufs，并会自动抓取所有阶段的启动日志放于 &lt;loader disk&gt;/p1/logs/ 下。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>disks</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Config disks related setting.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
+          <t>配置与磁盘相关的设置。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lsiutil</t>
+          <t>eudev</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A tool for working with some LSI RAID controllers.</t>
+          <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具。</t>
+          <t>eudev + kmod 自动加载模块。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -634,39 +634,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
+          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>hdddb</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>添加 rr notify。</t>
+          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>i915le10th</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -674,79 +674,79 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
+          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>localrss</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
+          <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
+          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>lsiutil</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
+          <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
+          <t>用于处理某些 LSI RAID 控制器的工具。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dbgutils</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically enable ttyd and dufs in junior mode, and automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Debug 程序集合，在 junior 模式下自动开启 ttyd 和 dufs，并会自动抓取所有阶段的启动日志放于 &lt;loader disk&gt;/p1/logs/ 下。</t>
+          <t>杂项功能。(一些小修改的集合。)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -754,59 +754,59 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
+          <t>添加 rr notify。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
+          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>杂项功能。(一些小修改的集合。)</t>
+          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -814,19 +814,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Author: jim3ma. Install the system on only m2 disk (current only support SA6400).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 SA6400）。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>acpid</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -834,119 +834,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ACPI Daemon that handles power button events, fixing power button not shutting down in some environments.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>处理电源按钮事件的ACPI守护程序, 解决部分环境下电源按钮无法正常关机的问题.</t>
+          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>photosfacepatch</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eudev</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>eudev + kmod automatically loaded modules.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块。</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>localrss</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Implant RSS into the bootloader so that it can be installed online.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>console</t>
+          <t>wol</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
+          <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
+          <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -954,19 +954,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -974,19 +974,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cpuinfo</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -994,19 +994,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default, hardware information is automatically obtained, and parameters can be customized through parameters, parameters: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
+          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>仅使控制面板显示正确的 CPU 信息。(默认自动获取硬件信息，可通过的参数进行自定义， 参数: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
+          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>i915le10th</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>addincards</t>
+          <t>wireless</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Remove model restrictions from official Addin cards(M2D20, E10G30-T2, ...).</t>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>移除官方 Addin 卡(M2D20, E10G30-T2, ...)对 DSM 型号限制。</t>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,7 +926,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>wol</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,12 +934,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Force enable Wake-on-lan for network devices.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
@@ -1060,6 +1060,26 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>wol</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Force enable Wake-on-lan for network devices.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,12 +574,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically enable ttyd and dufs in junior mode, and automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Debug 程序集合，在 junior 模式下自动开启 ttyd 和 dufs，并会自动抓取所有阶段的启动日志放于 &lt;loader disk&gt;/p1/logs/ 下。</t>
+          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
         </is>
       </c>
     </row>
@@ -906,27 +906,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,39 +934,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -974,19 +974,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -994,19 +994,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,30 +1054,50 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B33" t="b">
+      <c r="B34" t="b">
         <v>1</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,12 +554,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default, hardware information is automatically obtained, and parameters can be customized through parameters, parameters: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>仅使控制面板显示正确的 CPU 信息。(默认自动获取硬件信息，可通过的参数进行自定义， 参数: --vendor=, --family=, --series=, --cores=, --speed=, -r(restore)).</t>
+          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -974,19 +974,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -994,19 +994,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,30 +1074,50 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B34" t="b">
+      <c r="B35" t="b">
         <v>1</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -1034,12 +1034,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (default: RACK_24_Bay 1X8).</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>修改存储面板磁盘显示（默认：RACK_24_Bay 1X8）。</t>
+          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,47 +906,47 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
+          <t>延迟 redpill。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -954,39 +954,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -994,19 +994,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,30 +1094,50 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B35" t="b">
+      <c r="B36" t="b">
         <v>1</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -814,12 +814,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install the system on only m2 disk (current only support SA6400).</t>
+          <t>Author: jim3ma. Install the system on only m2 disk (current only support 7.2).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 SA6400）。</t>
+          <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 7.2）。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -814,12 +814,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install the system on only m2 disk (current only support 7.2).</t>
+          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：jim3ma。仅在m2磁盘上安装系统（当前仅支持 7.2）。</t>
+          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -554,12 +554,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,47 +486,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>amepatcher</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
+          <t>Author: wangsiji. This patcher enables Advanced Media Extensions 3.0 for you, without having to login account.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
+          <t>作者：wangsiji。此补丁程序可为您启用 Advanced Media Extensions 3.0，无需登录帐户。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
+          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>console</t>
+          <t>codecpatch</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -534,19 +534,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
+          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
+          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cpuinfo</t>
+          <t>console</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dbgutils</t>
+          <t>cpuinfo</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -574,39 +574,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
+          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>disks</t>
+          <t>dbgutils</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Config disks related setting.</t>
+          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置。</t>
+          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eudev</t>
+          <t>disks</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -614,39 +614,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eudev + kmod automatically loaded modules.</t>
+          <t>Config disks related setting.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块。</t>
+          <t>配置与磁盘相关的设置。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>eudev</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
+          <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
+          <t>eudev + kmod 自动加载模块。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hdddb</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -654,19 +654,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
+          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
+          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i915le10th</t>
+          <t>hdddb</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -674,139 +674,139 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
+          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
+          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>localrss</t>
+          <t>i915le10th</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Implant RSS into the bootloader so that it can be installed online.</t>
+          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
+          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lsiutil</t>
+          <t>localrss</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A tool for working with some LSI RAID controllers.</t>
+          <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具。</t>
+          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>lsiutil</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
+          <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>杂项功能。(一些小修改的集合。)</t>
+          <t>用于处理某些 LSI RAID 控制器的工具。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
+          <t>杂项功能。(一些小修改的集合。)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>添加 rr notify。</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
+          <t>添加 rr notify。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -814,19 +814,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
+          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
+          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -834,19 +834,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
+          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
+          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -854,19 +854,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
+          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>photosfacepatch</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -874,19 +874,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
+          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,79 +894,79 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>延迟 redpill。</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
+          <t>延迟 redpill。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -974,39 +974,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,30 +1114,50 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B36" t="b">
+      <c r="B37" t="b">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,47 +486,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>amepatcher</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Author: wangsiji. This patcher enables Advanced Media Extensions 3.0 for you, without having to login account.</t>
+          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>作者：wangsiji。此补丁程序可为您启用 Advanced Media Extensions 3.0，无需登录帐户。</t>
+          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>codecpatch</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
+          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
+          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>console</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -534,19 +534,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>console</t>
+          <t>cpuinfo</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
+          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cpuinfo</t>
+          <t>dbgutils</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -574,39 +574,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dbgutils</t>
+          <t>disks</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Config disks related setting.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
+          <t>配置与磁盘相关的设置。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>disks</t>
+          <t>eudev</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -614,39 +614,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Config disks related setting.</t>
+          <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置。</t>
+          <t>eudev + kmod 自动加载模块。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eudev</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eudev + kmod automatically loaded modules.</t>
+          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块。</t>
+          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>hdddb</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -654,19 +654,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
+          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
+          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hdddb</t>
+          <t>i915le10th</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -674,139 +674,139 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
+          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
+          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i915le10th</t>
+          <t>localrss</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
+          <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
+          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>localrss</t>
+          <t>lsiutil</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Implant RSS into the bootloader so that it can be installed online.</t>
+          <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
+          <t>用于处理某些 LSI RAID 控制器的工具。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lsiutil</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A tool for working with some LSI RAID controllers.</t>
+          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具。</t>
+          <t>杂项功能。(一些小修改的集合。)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
+          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>杂项功能。(一些小修改的集合。)</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
+          <t>添加 rr notify。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>添加 rr notify。</t>
+          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -814,19 +814,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
+          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -834,19 +834,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
+          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>photosfacepatch</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -854,19 +854,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
+          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
+          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -874,19 +874,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,79 +894,79 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
+          <t>延迟 redpill。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>延迟 redpill。</t>
+          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -974,39 +974,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -1014,19 +1014,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>wireless</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,50 +1114,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>wol</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>wol</t>
-        </is>
-      </c>
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Force enable Wake-on-lan for network devices.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,30 +1114,50 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Author: GXNAS. Force UPS to shut down in standby mode.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>作者：GXNAS。强制 UPS 在待机模式下关机。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B36" t="b">
+      <c r="B37" t="b">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This script ensures that the startup process waits until the loader disk (/dev/synoboot) is available before starting other processes.</t>
+          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程在启动加载器磁盘 (/dev/synoboot) 可用之前等待，然后再启动其他进程。</t>
+          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程。</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable M2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 M2 硬盘支持。</t>
+          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持。</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Installing the system in an environment with only m2 disk (current only support 7.2).</t>
+          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：jim3ma。 在仅有 m2 硬盘的环境中安装系统（当前仅支持 7.2）。</t>
+          <t>作者：jim3ma。将系统安装在 m.2 磁盘中（安装时不能含有任何 SATA 磁盘，仅支持 7.2）。</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Enable creating M.2 storage pools and volumes all from within Storage Manager.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中创建M.2存储池和卷。</t>
+          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中通过 m.2 磁盘创建存储池和卷。</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 包，用于监视 CPU 和其他组件的温度。</t>
+          <t>此脚本安装 sensors 工具，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force UPS to shut down in standby mode.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when the UPS is powered.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>作者：GXNAS。强制 UPS 在待机模式下关机。</t>
+          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -1114,12 +1114,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when the UPS is powered.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。</t>
+          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,47 +486,47 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>beep</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
+          <t>Beep at startup and shutdown (requires motherboard with buzzer)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程。</t>
+          <t>在启动和关机时发出哔声(需要主板有蜂鸣器)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
+          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>console</t>
+          <t>codecpatch</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -534,19 +534,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
+          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
+          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cpuinfo</t>
+          <t>console</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dbgutils</t>
+          <t>cpuinfo</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -574,39 +574,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
+          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>disks</t>
+          <t>dbgutils</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Config disks related setting.</t>
+          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置。</t>
+          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eudev</t>
+          <t>disks</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -614,39 +614,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eudev + kmod automatically loaded modules.</t>
+          <t>Config disks related setting.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块。</t>
+          <t>配置与磁盘相关的设置。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>eudev</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
+          <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
+          <t>eudev + kmod 自动加载模块。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hdddb</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -654,19 +654,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
+          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
+          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>i915le10th</t>
+          <t>hdddb</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -674,79 +674,79 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
+          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
+          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>localrss</t>
+          <t>i915le10th</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Implant RSS into the bootloader so that it can be installed online.</t>
+          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
+          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lsiutil</t>
+          <t>localrss</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A tool for working with some LSI RAID controllers.</t>
+          <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具。</t>
+          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>lsiutil</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
+          <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>杂项功能。(一些小修改的集合。)</t>
+          <t>用于处理某些 LSI RAID 控制器的工具。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>maiyunda</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -754,19 +754,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>RESET button functionality adapted, hold 3s (release after hearing beep) to reset admin password to maiyunda.com and reset network, hold 9s (release after hearing 3 beeps) to reset system (All data will be cleared). (Maiyunda machine)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
+          <t>RESET 按钮功能适配，按住 3s（听到哔哔哔后松手）重置 admin 密码为 maiyunda.com 并重置网络，按住 9s（听到 3次 哔哔哔后松手）重置系统（会清空全部数据）。(迈云达机器)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -774,19 +774,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>添加 rr notify。</t>
+          <t>杂项功能。(一些小修改的集合。)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -794,39 +794,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持。</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>作者：jim3ma。将系统安装在 m.2 磁盘中（安装时不能含有任何 SATA 磁盘，仅支持 7.2）。</t>
+          <t>添加 rr notify。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -834,19 +834,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
+          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中通过 m.2 磁盘创建存储池和卷。</t>
+          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -854,19 +854,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
+          <t>作者：jim3ma。将系统安装在 m.2 磁盘中（安装时不能含有任何 SATA 磁盘，仅支持 7.2）。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -874,19 +874,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
+          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中通过 m.2 磁盘创建存储池和卷。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>photosfacepatch</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,39 +894,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
+          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>延迟 redpill。</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,19 +934,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -954,79 +954,79 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>延迟 redpill。</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具，用于监视 CPU 和其他组件的温度。</t>
+          <t>撤销插件修改。</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>rndis</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Android USB Network Adapter.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>Android USB 网络适配器.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>此脚本安装 sensors 工具，用于监视 CPU 和其他组件的温度。</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
+          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>作者：Phachd。修复 HBA 设备上磁盘的 SMART 信息。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
+          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,30 +1134,90 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>updatenotify</t>
+        </is>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RR update notification.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>RR更新通知。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ups</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B37" t="b">
+      <c r="B40" t="b">
         <v>1</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beep at startup and shutdown (requires motherboard with buzzer)</t>
+          <t>Beep at startup and shutdown (requires motherboard with buzzer) Parameters: -m : Mario at startup and AxelF at shutdown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>在启动和关机时发出哔声(需要主板有蜂鸣器)</t>
+          <t>在启动和关机时发出哔声(需要主板有蜂鸣器) 参数: -m : 开机 Mario 和 关机 AxelF</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,12 +774,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Miscellaneous functions.(a collection of some minor modifications.)</t>
+          <t>Miscellaneous functions. (A collection of some necessary modifications.)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>杂项功能。(一些小修改的集合。)</t>
+          <t>杂项功能。(一些必要的修改的集合。)</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>杂项功能。(一些不太必要的修改的集合。)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
+          <t>RR更新通知。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,30 +1194,50 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B40" t="b">
+      <c r="B41" t="b">
         <v>1</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>移除官方 Addin 卡(M2D20, E10G30-T2, ...)对 DSM 型号限制。</t>
+          <t>移除官方 Addin 卡(M2D20, E10G30-T2, ...)对 DSM 型号限制.</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程。</t>
+          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程.</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>作者：wirgen。此补丁可在Synology的DiskStation Manager 6+上启用转码，无需有效的序列号。</t>
+          <t>作者: wirgen. 此补丁可在Synology的DiskStation Manager 6+上启用转码, 无需有效的序列号.</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能，以允许在屏幕上进行调试，仅支持具有显卡驱动程序的型号。</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能, 以允许在屏幕上进行调试, 仅支持具有显卡驱动程序的型号.</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息。(默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>只让控制面板显示正确的CPU信息. (默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>调试工具，自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/。</t>
+          <t>调试工具, 自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/.</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置。</t>
+          <t>配置与磁盘相关的设置.</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块。</t>
+          <t>eudev + kmod 自动加载模块.</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>扩展杂项，更新 usb.map，ca-certificates.crt 等。</t>
+          <t>扩展杂项, 更新 usb.map, ca-certificates.crt 等.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>作者：007revad。将HDD/SSD驱动器数据添加到DSM数据库中，以解决硬盘固件版本无法识别的问题。</t>
+          <t>作者: 007revad. 将HDD/SSD驱动器数据添加到DSM数据库中, 以解决硬盘固件版本无法识别的问题.</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>自动替换 i915.ko（apollolake，geminilake）的设备 ID，仅支持 10 代以下。 （参数VID：PID）</t>
+          <t xml:space="preserve">自动替换 i915.ko (apollolake, geminilake) 的设备 ID, 仅支持 10 代以下. (参数VID:PID) </t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中，以便可以在线安装。</t>
+          <t>将 RSS 植入到引导加载程序中, 以便可以在线安装.</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具。</t>
+          <t>用于处理某些 LSI RAID 控制器的工具.</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RESET 按钮功能适配，按住 3s（听到哔哔哔后松手）重置 admin 密码为 maiyunda.com 并重置网络，按住 9s（听到 3次 哔哔哔后松手）重置系统（会清空全部数据）。(迈云达机器)</t>
+          <t>RESET 按钮功能适配, 按住 3s (听到哔哔哔后松手) 重置 admin 密码为 maiyunda.com 并重置网络, 按住 9s (听到 3次 哔哔哔后松手) 重置系统 (会清空全部数据). (迈云达机器)</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>杂项功能。(一些必要的修改的集合。)</t>
+          <t>杂项功能. (一些必要的修改的集合.)</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘，供 rr-manager 应用程序使用。</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘, 供 rr-manager 应用程序使用.</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>添加 rr notify。</t>
+          <t>添加 rr notify.</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者：PeterSuh-Q3。启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持。</t>
+          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持.</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者：jim3ma。将系统安装在 m.2 磁盘中（安装时不能含有任何 SATA 磁盘，仅支持 7.2）。</t>
+          <t>作者: jim3ma. 将系统安装在 m.2 磁盘中 (安装时不能含有任何 SATA 磁盘, 仅支持 7.2) .</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者：007revad &amp; PeterSuh-Q3。允许从存储管理器中通过 m.2 磁盘创建存储池和卷。</t>
+          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 m.2 磁盘创建存储池和卷.</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别。</t>
+          <t>作者: jinlife. 此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别.</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作。</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR，这使得很容易访问 RR 而不需要屏幕和键盘。</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>延迟 redpill。</t>
+          <t>延迟 redpill.</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>作者：jinlife。此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹。</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>撤销插件修改。</t>
+          <t>撤销插件修改.</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具，用于监视 CPU 和其他组件的温度。</t>
+          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp。请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务。</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>作者：Phachd。修复 HBA 设备上磁盘的 SMART 信息。</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序。(参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示（默认为自动，请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数）。</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘（&lt;引导加载器磁盘&gt;/p1/scbk/）。参数：$1 - 保存次数，默认 7；$2 - 文件名前缀，默认 "bkp"。</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>杂项功能。(一些不太必要的修改的集合。)</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RR更新通知。</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>作者：GXNAS。强制将 UPS 供电时的待机模式修改为关机。參數：-f - 关机前触发关机任务；-e - 待机模式前发关机任务(不修改为关机)。</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>连接 WiFi。请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它。</t>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>强制启用网络设备的 Wake-on-lan(网络唤醒)。</t>
+          <t>强制启用网络设备的 Wake-on-lan(网络唤醒).</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,27 +1006,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>rndis</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Android USB Network Adapter.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Android USB 网络适配器.</t>
+          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>smartctl</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>wireless</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,50 +1194,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>wol</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>wol</t>
-        </is>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Force enable Wake-on-lan for network devices.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒).</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1186,7 +1186,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,30 +1194,50 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>qemu-ga &amp; &amp;open-vm-tools.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>qemu-ga &amp; &amp;open-vm-tools.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B40" t="b">
+      <c r="B41" t="b">
         <v>1</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒).</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -1194,12 +1194,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; &amp;open-vm-tools.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; &amp;open-vm-tools.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>blockupdate</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -514,39 +514,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
+          <t>Block DSM automatic system update.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程.</t>
+          <t>阻止 DSM 自动系统更新。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>作者: wirgen. 此补丁可在Synology的DiskStation Manager 6+上启用转码, 无需有效的序列号.</t>
+          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>console</t>
+          <t>codecpatch</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
+          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能, 以允许在屏幕上进行调试, 仅支持具有显卡驱动程序的型号.</t>
+          <t>作者: wirgen. 此补丁可在Synology的DiskStation Manager 6+上启用转码, 无需有效的序列号.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cpuinfo</t>
+          <t>console</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -574,19 +574,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Provides screen console (bash) functionality via framebuffer (fb) to allow debugging on the screen, only supported on models with a graphics driver.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息. (默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>通过帧缓冲区 (fb) 提供屏幕控制台 (bash) 功能, 以允许在屏幕上进行调试, 仅支持具有显卡驱动程序的型号.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dbgutils</t>
+          <t>cpuinfo</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -594,39 +594,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
+          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>调试工具, 自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/.</t>
+          <t>只让控制面板显示正确的CPU信息. (默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>disks</t>
+          <t>dbgutils</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Config disks related setting.</t>
+          <t>Debug utilities, automatically capture all stage boot logs to &lt;loader disk&gt;/p1/logs/.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>配置与磁盘相关的设置.</t>
+          <t>调试工具, 自动捕获所有阶段启动日志到 &lt;加载器磁盘&gt;/p1/logs/.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eudev</t>
+          <t>disks</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -634,39 +634,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eudev + kmod automatically loaded modules.</t>
+          <t>Config disks related setting.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>eudev + kmod 自动加载模块.</t>
+          <t>配置与磁盘相关的设置.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>eudev</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
+          <t>eudev + kmod automatically loaded modules.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>扩展杂项, 更新 usb.map, ca-certificates.crt 等.</t>
+          <t>eudev + kmod 自动加载模块.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hdddb</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -674,19 +674,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
+          <t>Expanded miscellaneous, updated usb.map, ca-certificates.crt, etc.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>作者: 007revad. 将HDD/SSD驱动器数据添加到DSM数据库中, 以解决硬盘固件版本无法识别的问题.</t>
+          <t>扩展杂项, 更新 usb.map, ca-certificates.crt 等.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>i915le10th</t>
+          <t>hdddb</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -694,59 +694,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
+          <t>Author: 007revad. Add HDD/SSD drives to the DSM database to solve the problem of firmware version not recognized by the disk.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">自动替换 i915.ko (apollolake, geminilake) 的设备 ID, 仅支持 10 代以下. (参数VID:PID) </t>
+          <t>作者: 007revad. 将HDD/SSD驱动器数据添加到DSM数据库中, 以解决硬盘固件版本无法识别的问题.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>localrss</t>
+          <t>i915le10th</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Implant RSS into the bootloader so that it can be installed online.</t>
+          <t>Automatically replace the device ID of i915.ko(apollolake, geminilake), only supporting less 10th. (Parameter VID:PID)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>将 RSS 植入到引导加载程序中, 以便可以在线安装.</t>
+          <t xml:space="preserve">自动替换 i915.ko (apollolake, geminilake) 的设备 ID, 仅支持 10 代以下. (参数VID:PID) </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lsiutil</t>
+          <t>localrss</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A tool for working with some LSI RAID controllers.</t>
+          <t>Implant RSS into the bootloader so that it can be installed online.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>用于处理某些 LSI RAID 控制器的工具.</t>
+          <t>将 RSS 植入到引导加载程序中, 以便可以在线安装.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>maiyunda</t>
+          <t>lsiutil</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -754,99 +754,99 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RESET button functionality adapted, hold 3s (release after hearing beep) to reset admin password to maiyunda.com and reset network, hold 9s (release after hearing 3 beeps) to reset system (All data will be cleared). (Maiyunda machine)</t>
+          <t>A tool for working with some LSI RAID controllers.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RESET 按钮功能适配, 按住 3s (听到哔哔哔后松手) 重置 admin 密码为 maiyunda.com 并重置网络, 按住 9s (听到 3次 哔哔哔后松手) 重置系统 (会清空全部数据). (迈云达机器)</t>
+          <t>用于处理某些 LSI RAID 控制器的工具.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>misc</t>
+          <t>maiyunda</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some necessary modifications.)</t>
+          <t>RESET button functionality adapted, hold 3s (release after hearing beep) to reset admin password to maiyunda.com and reset network, hold 9s (release after hearing 3 beeps) to reset system (All data will be cleared). (Maiyunda machine)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>杂项功能. (一些必要的修改的集合.)</t>
+          <t>RESET 按钮功能适配, 按住 3s (听到哔哔哔后松手) 重置 admin 密码为 maiyunda.com 并重置网络, 按住 9s (听到 3次 哔哔哔后松手) 重置系统 (会清空全部数据). (迈云达机器)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>Miscellaneous functions. (A collection of some necessary modifications.)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘, 供 rr-manager 应用程序使用.</t>
+          <t>杂项功能. (一些必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>添加 rr notify.</t>
+          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘, 供 rr-manager 应用程序使用.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持.</t>
+          <t>添加 rr notify.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -854,19 +854,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
+          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者: jim3ma. 将系统安装在 m.2 磁盘中 (安装时不能含有任何 SATA 磁盘, 仅支持 7.2) .</t>
+          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -874,19 +874,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
+          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 m.2 磁盘创建存储池和卷.</t>
+          <t>作者: jim3ma. 将系统安装在 m.2 磁盘中 (安装时不能含有任何 SATA 磁盘, 仅支持 7.2) .</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,19 +894,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别.</t>
+          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 m.2 磁盘创建存储池和卷.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>photosfacepatch</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -914,19 +914,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
+          <t>作者: jinlife. 此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,99 +934,99 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>延迟 redpill.</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
+          <t>延迟 redpill.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>撤销插件修改.</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
+          <t>撤销插件修改.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
+          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>smartctl</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1214,30 +1214,50 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B41" t="b">
+      <c r="B42" t="b">
         <v>1</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan(网络唤醒).</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -874,12 +874,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports 7.2).</t>
+          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者: jim3ma. 将系统安装在 m.2 磁盘中 (安装时不能含有任何 SATA 磁盘, 仅支持 7.2) .</t>
+          <t>作者: jim3ma. 在 m.2 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>强制启用网络设备的 Wake-on-lan(网络唤醒).</t>
+          <t>强制启用网络设备的 Wake-on-lan (网络唤醒).</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beep</t>
+          <t>apppatch</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -494,39 +494,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beep at startup and shutdown (requires motherboard with buzzer) Parameters: -m : Mario at startup and AxelF at shutdown</t>
+          <t>Fixed bugs in Synology Photos, local_display, and other apps.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>在启动和关机时发出哔声(需要主板有蜂鸣器) 参数: -m : 开机 Mario 和 关机 AxelF</t>
+          <t>修复 Synology Photos、local_display 等应用程序中的错误。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>blockupdate</t>
+          <t>beep</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Block DSM automatic system update.</t>
+          <t>Beep at startup and shutdown (requires motherboard with buzzer) Parameters: -m : Mario at startup and AxelF at shutdown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>阻止 DSM 自动系统更新。</t>
+          <t>在启动和关机时发出哔声(需要主板有蜂鸣器) 参数: -m : 开机 Mario 和 关机 AxelF</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bootwait</t>
+          <t>blockupdate</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -534,32 +534,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
+          <t>Block DSM automatic system update.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程.</t>
+          <t>阻止 DSM 自动系统更新。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>codecpatch</t>
+          <t>bootwait</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Author: wirgen. This patch enables transcoding on Synologys DiskStation Manager 6+ without a valid serial number.</t>
+          <t>This script ensures that the boot process waits for the boot disk (/dev/synoboot) to be available before starting other processes.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>作者: wirgen. 此补丁可在Synology的DiskStation Manager 6+上启用转码, 无需有效的序列号.</t>
+          <t>此脚本确保启动过程等待引导盘磁盘 (/dev/synoboot) 可用之后再启动其他进程.</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>photosfacepatch</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -914,19 +914,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will ignore the GPU to enable face recognition in Synology Photos.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将在没有 GPU 存在的情况下启用 Synology Photos 中的人脸识别.</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,99 +934,99 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
+          <t>延迟 redpill.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>延迟 redpill.</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
+          <t>撤销插件修改.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>撤销插件修改.</t>
+          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>smartctl</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>wireless</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1214,50 +1214,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>wol</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>wol</t>
-        </is>
-      </c>
-      <c r="B42" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Force enable Wake-on-lan for network devices.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan (网络唤醒).</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +1126,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>tad6s4n10g</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>Control TANK TAD6S4N10G button events, please modify the content of the "Net-Button" and "Copy-Button" tasks in the scheduled tasks.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>用于控制TANK TAD6S4N10G 按钮事件, 事件内容请自行修改 计划任务中 "Net-Button" 和 "Copy-Button" 两个任务的内容.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1214,30 +1214,50 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>qemu-ga &amp; open-vm-tools.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B41" t="b">
+      <c r="B42" t="b">
         <v>1</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan (网络唤醒).</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -1014,12 +1014,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>This script installs the sensors package, which is used to monitor the temperature of the CPU and other components.</t>
+          <t>This script installs the sensors and fancontrol tools for CPU monitoring and fan control, which can be adjusted through the Fancontrol in the scheduled task.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 工具, 用于监视 CPU 和其他组件的温度.</t>
+          <t>此脚本安装 sensors 和 fancontrol 工具, 用于监视 CPU 和风扇控制, 可通过计划任务中 Fancontrol 调整风扇具体参数.</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW="" to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW='' to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW="" 修改为所需的密码并运行该任务.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW='' 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1114,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default "bkp".</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default 'bkp'.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 "bkp".</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 'bkp'.</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Control TANK TAD6S4N10G button events, please modify the content of the "Net-Button" and "Copy-Button" tasks in the scheduled tasks.</t>
+          <t>Used to control TANK TAD6S4N10G DTS generation and button events, please modify the event content by yourself. The content of the four tasks Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s in the scheduled task.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>用于控制TANK TAD6S4N10G 按钮事件, 事件内容请自行修改 计划任务中 "Net-Button" 和 "Copy-Button" 两个任务的内容.</t>
+          <t>用于控制TANK TAD6S4N10G DTS生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 4 个任务的内容.</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>处理电源按钮事件的ACPI守护程序, 解决部分环境下电源按钮无法正常关机的问题.</t>
+          <t>处理电源按钮事件的 ACPI 守护程序, 解决部分环境下电源按钮无法正常关机的问题.</t>
         </is>
       </c>
     </row>
@@ -494,12 +494,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fixed bugs in Synology Photos, local_display, and other apps.</t>
+          <t>Fix Synology Photos unable to delete photos under non-genuine SN, close local_display to prevent generating a large number of BrowserMetrics files.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>修复 Synology Photos、local_display 等应用程序中的错误。</t>
+          <t>修复 Synology Photos 在非正版SN下无法删除照片的问题、关闭 local_display 防止生成大量 BrowserMetrics文件。</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Beep at startup and shutdown (requires motherboard with buzzer) Parameters: -m : Mario at startup and AxelF at shutdown</t>
+          <t>Beep at startup and shutdown (requires motherboard with buzzer) Parameters: -m: Mario at startup and AxelF at shutdown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>在启动和关机时发出哔声(需要主板有蜂鸣器) 参数: -m : 开机 Mario 和 关机 AxelF</t>
+          <t>在启动和关机时发出哔声(需要主板有蜂鸣器) 参数: -m: 开机 Mario 和 关机 AxelF</t>
         </is>
       </c>
     </row>
@@ -814,12 +814,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Add a script to mount/unmount loader disk in the DSM scheduled task, For use by the rr-manager applications.</t>
+          <t>Mount boot disk and upgrade boot script under DSM system, for rr-manager application.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本来挂载/卸载加载器磁盘, 供 rr-manager 应用程序使用.</t>
+          <t>在 DSM 系统下挂载引导磁盘和升级引导的脚本, 供 rr-manager 应用程序使用.</t>
         </is>
       </c>
     </row>
@@ -854,12 +854,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable m.2 disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Author: PeterSuh-Q3. Enable NVME disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 m.2 硬盘支持.</t>
+          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 NVME 硬盘支持.</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on m.2 disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
+          <t>Author: jim3ma. Install system on NVME disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者: jim3ma. 在 m.2 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
+          <t>作者: jim3ma. 在 NVME 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through m.2 disks.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through NVME disks.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 m.2 磁盘创建存储池和卷.</t>
+          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 NVME 磁盘创建存储池和卷.</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc..</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等中使用远程 NFS/CIFS 共享文件夹.</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等应用中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>用于控制TANK TAD6S4N10G DTS生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 4 个任务的内容.</t>
+          <t>用于控制TANK TAD6S4N10G DTS生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>qemu-ga &amp; open-vm-tools.</t>
+          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>强制启用网络设备的 Wake-on-lan (网络唤醒).</t>
+          <t>强制启用网络设备的 Wake-on-lan.</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -774,12 +774,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RESET button functionality adapted, hold 3s (release after hearing beep) to reset admin password to maiyunda.com and reset network, hold 9s (release after hearing 3 beeps) to reset system (All data will be cleared). (Maiyunda machine)</t>
+          <t>Control Maiyunda M1S machine RESET button event, press and hold for 3s (release after hearing beeping) reset admin password to maiyunda.com and reset network, press and hold for 9s (release after hearing 3 beeps) reset system (all data will be erased).</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RESET 按钮功能适配, 按住 3s (听到哔哔哔后松手) 重置 admin 密码为 maiyunda.com 并重置网络, 按住 9s (听到 3次 哔哔哔后松手) 重置系统 (会清空全部数据). (迈云达机器)</t>
+          <t>用于控制 迈云达M1S 机器的 RESET 按钮事件, 按住 3s (听到哔哔哔后松手) 重置 admin 密码为 maiyunda.com 并重置网络, 按住 9s (听到 3次 哔哔哔后松手) 重置系统 (会清空全部数据).</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1134,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Used to control TANK TAD6S4N10G DTS generation and button events, please modify the event content by yourself. The content of the four tasks Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s in the scheduled task.</t>
+          <t>Control TANK TAD6S4N10G machine DTS generation and button events, please modify the content of the Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s tasks in the scheduled tasks.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>用于控制TANK TAD6S4N10G DTS生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
+          <t>用于控制TANK TAD6S4N10G 机器的 DTS 生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -594,12 +594,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Only make the control panel display the correct CPU information. (By default is automatically obtained, Or customized through parameters, e.g.: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>Display CPU/GPU/Temperature information in the control panel. (Option -s shows static information)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>只让控制面板显示正确的CPU信息. (默认是自动获取的, 或通过参数自定义, 例如: -t 'on' --vendor 'Intel' --family 'Core i9' --series 'i7-13900ks' --cores 64 --speed 5200)</t>
+          <t>只让控制面板显示正确的CPU/GPU/温度等信息. (参数 -s 显示静态信息)</t>
         </is>
       </c>
     </row>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,7 +806,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mountloader</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -814,59 +814,59 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mount boot disk and upgrade boot script under DSM system, for rr-manager application.</t>
+          <t>Monitor Power Management (Only supports graphics card drivers).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>在 DSM 系统下挂载引导磁盘和升级引导的脚本, 供 rr-manager 应用程序使用.</t>
+          <t>显示器电源管理 (仅支持显卡已驱动的环境)。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>mountloader</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Mount boot disk and upgrade boot script under DSM system, for rr-manager application.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>添加 rr notify.</t>
+          <t>在 DSM 系统下挂载引导磁盘和升级引导的脚本, 供 rr-manager 应用程序使用.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable NVME disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 NVME 硬盘支持.</t>
+          <t>添加 rr notify.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -874,19 +874,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on NVME disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
+          <t>Author: PeterSuh-Q3. Enable NVME disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者: jim3ma. 在 NVME 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
+          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 NVME 硬盘支持.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,19 +894,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through NVME disks.</t>
+          <t>Author: jim3ma. Install system on NVME disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 NVME 磁盘创建存储池和卷.</t>
+          <t>作者: jim3ma. 在 NVME 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -914,19 +914,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through NVME disks.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
+          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 NVME 磁盘创建存储池和卷.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,99 +934,99 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>延迟 redpill.</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc.</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等应用中使用远程 NFS/CIFS 共享文件夹.</t>
+          <t>延迟 redpill.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>撤销插件修改.</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等应用中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>This script installs the sensors and fancontrol tools for CPU monitoring and fan control, which can be adjusted through the Fancontrol in the scheduled task.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 和 fancontrol 工具, 用于监视 CPU 和风扇控制, 可通过计划任务中 Fancontrol 调整风扇具体参数.</t>
+          <t>撤销插件修改.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW='' to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors and fancontrol tools for CPU monitoring and fan control, which can be adjusted through the Fancontrol in the scheduled task.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW='' 修改为所需的密码并运行该任务.</t>
+          <t>此脚本安装 sensors 和 fancontrol 工具, 用于监视 CPU 和风扇控制, 可通过计划任务中 Fancontrol 调整风扇具体参数.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>smartctl</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW='' to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW='' 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default 'bkp'.</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 'bkp'.</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tad6s4n10g</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Control TANK TAD6S4N10G machine DTS generation and button events, please modify the content of the Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s tasks in the scheduled tasks.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default 'bkp'.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>用于控制TANK TAD6S4N10G 机器的 DTS 生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 'bkp'.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>tad6s4n10g</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>Control TANK TAD6S4N10G machine DTS generation and button events, please modify the content of the Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s tasks in the scheduled tasks.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>用于控制TANK TAD6S4N10G 机器的 DTS 生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1214,19 +1214,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1234,30 +1234,50 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B42" t="b">
+      <c r="B43" t="b">
         <v>1</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan.</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,7 +1226,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>virtiofs</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
+          <t>Auto mount virtio9p and virtiofs file systems (effective after rebooting the system after creating the storage space for the first time since it is mounted to the first storage space by default).</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
+          <t>自动挂载 virtio9p 和 virtiofs 文件系统(由于默认挂载到第一个存储空间，所以首次安装系统创建存储空间后重启生效).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1254,30 +1254,50 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B43" t="b">
+      <c r="B44" t="b">
         <v>1</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan.</t>
         </is>

--- a/docs/addons.xlsx
+++ b/docs/addons.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>notify</t>
+          <t>netfix</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -854,39 +854,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Add rr notify.</t>
+          <t>Fix network interface mac.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>添加 rr notify.</t>
+          <t>修复网络接口mac地址.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nvmecache</t>
+          <t>notify</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Author: PeterSuh-Q3. Enable NVME disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
+          <t>Add rr notify.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 NVME 硬盘支持.</t>
+          <t>添加 rr notify.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nvmesystem</t>
+          <t>nvmecache</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -894,19 +894,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Author: jim3ma. Install system on NVME disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
+          <t>Author: PeterSuh-Q3. Enable NVME disk support for DS918+, DS1019+, DS1621xs+, RS1619xs+.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>作者: jim3ma. 在 NVME 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
+          <t>作者: PeterSuh-Q3. 启用 DS918+、DS1019+、DS1621xs+、RS1619xs+ 的 NVME 硬盘支持.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nvmevolume</t>
+          <t>nvmesystem</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -914,19 +914,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through NVME disks.</t>
+          <t>Author: jim3ma. Install system on NVME disk (can't contain any SATA disk during installation, only supports DT mdoels).</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 NVME 磁盘创建存储池和卷.</t>
+          <t>作者: jim3ma. 在 NVME 盘上安装系统 (在安装过程中不能包含 SATA 盘，仅支持 DT 型号).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>powersched</t>
+          <t>nvmevolume</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -934,19 +934,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
+          <t>Author: 007revad &amp; PeterSuh-Q3. Allow creation of storage pools and volumes from Storage Manager through NVME disks.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
+          <t>作者: 007revad &amp; PeterSuh-Q3. 允许从存储管理器中通过 NVME 磁盘创建存储池和卷.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>reboottoloader</t>
+          <t>powersched</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -954,99 +954,99 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
+          <t>A program to configure the RTC according to the DSM power plan, so that the RTC (scheduled power on/off) can work properly.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
+          <t>根据 DSM 电源计划配置 RTC 的程序, 使 RTC(定时开关机) 可以正常工作.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>redpill</t>
+          <t>reboottoloader</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Delay redpill.</t>
+          <t>Add a script to restart to RR in the DSM scheduled task, making it easy to access RR with not have a screen and keyboard.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>延迟 redpill.</t>
+          <t>在 DSM 计划任务中添加一个脚本以重新启动到 RR, 这使得很容易访问 RR 而不需要屏幕和键盘.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>remotefs</t>
+          <t>redpill</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc.</t>
+          <t>Delay redpill.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等应用中使用远程 NFS/CIFS 共享文件夹.</t>
+          <t>延迟 redpill.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>revert</t>
+          <t>remotefs</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Revert addons modifications.</t>
+          <t>Author: jinlife. This patch will allow remote NFS/CIFS shared folder be used in VideoStation, AudioStation and Photos etc.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>撤销插件修改.</t>
+          <t>作者: jinlife. 此补丁将允许在 VideoStation、AudioStation 和 Photos 等应用中使用远程 NFS/CIFS 共享文件夹.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sensors</t>
+          <t>revert</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>This script installs the sensors and fancontrol tools for CPU monitoring and fan control, which can be adjusted through the Fancontrol in the scheduled task.</t>
+          <t>Revert addons modifications.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>此脚本安装 sensors 和 fancontrol 工具, 用于监视 CPU 和风扇控制, 可通过计划任务中 Fancontrol 调整风扇具体参数.</t>
+          <t>撤销插件修改.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>setrootpw</t>
+          <t>sensors</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -1054,19 +1054,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Set root password and enable ssh/sftp. Please modify PW='' to the desired password in DSM Task Scheduler and run the task.</t>
+          <t>This script installs the sensors and fancontrol tools for CPU monitoring and fan control, which can be adjusted through the Fancontrol in the scheduled task.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW='' 修改为所需的密码并运行该任务.</t>
+          <t>此脚本安装 sensors 和 fancontrol 工具, 用于监视 CPU 和风扇控制, 可通过计划任务中 Fancontrol 调整风扇具体参数.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>smartctl</t>
+          <t>setrootpw</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -1074,19 +1074,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
+          <t>Set root password and enable ssh/sftp. Please modify PW='' to the desired password in DSM Task Scheduler and run the task.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
+          <t>设置 root 密码并启用 ssh/sftp. 请在 DSM 计划任务中将 PW='' 修改为所需的密码并运行该任务.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sortnetif</t>
+          <t>smartctl</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
+          <t>Author: Phachd. Fix SMART information on disks on HBA devices.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
+          <t>作者: Phachd. 修复 HBA 设备上磁盘的 SMART 信息.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>storagepanel</t>
+          <t>sortnetif</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
+          <t>Sort network interface name.(parameters: empty: sorted by busid; mac1,mac2,...: sorted by macs sequence).</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
+          <t>对网络接口名称进行排序. (参数: 空: 按 busid 排序; mac1,mac2,...: 按 macs 序列排序).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>synoconfbkp</t>
+          <t>storagepanel</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default 'bkp'.</t>
+          <t>Change the storage panel disk display (The default is automatic, please see the documentation or '/usr/bin/storagepanel.sh -h' for parameters).</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 'bkp'.</t>
+          <t>更改存储面板磁盘显示 (默认为自动, 请参阅文档或 '/usr/bin/storagepanel.sh -h' 了解参数).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tad6s4n10g</t>
+          <t>synoconfbkp</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -1154,19 +1154,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Control TANK TAD6S4N10G machine DTS generation and button events, please modify the content of the Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s tasks in the scheduled tasks.</t>
+          <t>Automatically backup system config settings to the bootloader disk(&lt;loader disk&gt;/p1/scbk/) at bootup and shutdown. Parameters: $1 - number of saves, default 7; $2 - file name prefix, default 'bkp'.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>用于控制TANK TAD6S4N10G 机器的 DTS 生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
+          <t>在启动和关机时自动备份系统配置设置到引导加载器磁盘 (&lt;引导加载器磁盘&gt;/p1/scbk/). 参数: $1 - 保存次数, 默认 7; $2 - 文件名前缀, 默认 'bkp'.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>tad6s4n10g</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -1174,19 +1174,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
+          <t>Control TANK TAD6S4N10G machine DTS generation and button events, please modify the content of the Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s tasks in the scheduled tasks.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>杂项功能. (一些不太必要的修改的集合.)</t>
+          <t>用于控制TANK TAD6S4N10G 机器的 DTS 生成 和 按钮事件, 事件内容请自行修改 计划任务中 Net-Button-3s Net-Button-9s Copy-Button-3s Copy-Button-9s 几个任务的内容.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>updatenotify</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -1194,19 +1194,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RR update notification.</t>
+          <t>Miscellaneous functions. (A collection of some unnecessary modifications.)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RR 更新通知.</t>
+          <t>杂项功能. (一些不太必要的修改的集合.)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ups</t>
+          <t>updatenotify</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -1214,19 +1214,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
+          <t>RR update notification.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
+          <t>RR 更新通知.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>virtiofs</t>
+          <t>ups</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Auto mount virtio9p and virtiofs file systems (effective after rebooting the system after creating the storage space for the first time since it is mounted to the first storage space by default).</t>
+          <t>Author: GXNAS. Force the standby mode to shutdown when UPS power supply. Parameters: -f - Trigger shutdown task before shutdown; -e - Trigger shutdown task before standby mode (not change to shutdown).</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>自动挂载 virtio9p 和 virtiofs 文件系统(由于默认挂载到第一个存储空间，所以首次安装系统创建存储空间后重启生效).</t>
+          <t>作者: GXNAS. 强制将 UPS 供电时的待机模式修改为关机. 參數: -f - 关机前触发关机任务; -e - 待机模式前发关机任务(不修改为关机).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vmtools</t>
+          <t>virtiofs</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -1254,19 +1254,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
+          <t>Auto mount virtio9p and virtiofs file systems (effective after rebooting the system after creating the storage space for the first time since it is mounted to the first storage space by default).</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
+          <t>自动挂载 virtio9p 和 virtiofs 文件系统(由于默认挂载到第一个存储空间，所以首次安装系统创建存储空间后重启生效).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>wireless</t>
+          <t>vmtools</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -1274,30 +1274,50 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+          <t>Automatically install qemu-ga or open-vm-tools according to the environment. (Physical machines are not enabled by default, no need to cancel)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+          <t>根据环境自动安装 qemu-ga 或者 open-vm-tools. (物理机默认不会启用, 不需要取消)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>wireless</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Connect WiFi. Please modify 'IFNAME' 'SSID' 'PASSWD' to the required password in the DSM scheduled task and execute it.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>连接 WiFi. 请在 DSM 计划任务中将 'IFNAME' 'SSID' 'PASSWD' 修改为所需密码并执行它.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>wol</t>
         </is>
       </c>
-      <c r="B44" t="b">
+      <c r="B45" t="b">
         <v>1</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Force enable Wake-on-lan for network devices.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>强制启用网络设备的 Wake-on-lan.</t>
         </is>
